--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/04.TraBH/TBH201207_GpsTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/04.TraBH/TBH201207_GpsTayNinh.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -141,6 +141,18 @@
   </si>
   <si>
     <t>Thiết bị có dấu hiệu độ ẩm cao</t>
+  </si>
+  <si>
+    <t>TG102E</t>
+  </si>
+  <si>
+    <t>Thiết bị chốt GPS kém</t>
+  </si>
+  <si>
+    <t>Đổi mới</t>
+  </si>
+  <si>
+    <t>IMEI tb mới : 860906041150142</t>
   </si>
 </sst>
 </file>
@@ -1241,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1264,7 @@
     <col min="1" max="1" width="6.7109375" style="27" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="30.28515625" style="13" customWidth="1"/>
@@ -1566,92 +1578,130 @@
       <c r="H17" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="37"/>
-    </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41" t="s">
+      <c r="I17" s="36"/>
+    </row>
+    <row r="18" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
+        <v>7</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="30">
+        <v>860157040214261</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="46"/>
+      <c r="G18" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="36"/>
+    </row>
+    <row r="19" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
+        <v>8</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="30">
+        <v>862846048307394</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="46"/>
+      <c r="G19" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="36"/>
+    </row>
+    <row r="20" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28">
+        <v>9</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="30">
+        <v>862549041572234</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="37"/>
+    </row>
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="42">
-        <f>SUM(I12:I17)</f>
+      <c r="I21" s="42">
+        <f>SUM(I12:I20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D20" s="76" t="s">
+    <row r="22" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="77" t="s">
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="39" t="s">
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="35"/>
-    </row>
-    <row r="22" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="20"/>
-    </row>
-    <row r="23" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="20"/>
-    </row>
-    <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="20"/>
+      <c r="I24" s="35"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="22"/>
@@ -1661,36 +1711,69 @@
       <c r="E25" s="16"/>
       <c r="F25" s="33"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="29"/>
+      <c r="H25" s="15"/>
       <c r="I25" s="20"/>
     </row>
+    <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="20"/>
+    </row>
     <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="22"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="30" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="34"/>
-    </row>
-    <row r="30" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B30" s="75"/>
       <c r="C30" s="75"/>
-    </row>
-    <row r="69" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="34"/>
+    </row>
+    <row r="33" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+    </row>
+    <row r="72" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A30:E30"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
@@ -1704,7 +1787,7 @@
     <mergeCell ref="A1:E4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.51181102362204722" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
